--- a/预制菜小炒牛肉 京东 商品搜索结果/商品分析结果.xlsx
+++ b/预制菜小炒牛肉 京东 商品搜索结果/商品分析结果.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1832,36 +1832,36 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>西牛优选甘肃小炒黄牛肉150g*5袋+黑椒牛柳150g*5袋免调味半成品 源头直发</t>
+          <t>紫燕百味鸡钵钵鸡调味料预制菜料汁红油味140g+牛肉麻婆豆腐调料100g</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>127.2</v>
+        <v>19.9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>西牛优选肉制品京东自营旗舰店</t>
+          <t>紫燕百味鸡京东自营旗舰店</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>已售1万+</t>
+          <t>55人看过</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>精选腌制, |甄选食材, |1千+人浏览, |口感鲜香</t>
+          <t>200+人浏览</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>谷言预制菜美味20种菜肴</t>
+          <t>谷言料理包麻婆豆腐200g10袋</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1870,169 +1870,169 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>已售9万+500+人好评</t>
+          <t>已售100+96%好评</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>它精选优质食材，通过科学的烹饪工艺, 冷冻保存, |方便简单, |加热即食, |精选口味, |轻松烹饪, |快速便捷, |冷冻鲜美, |营养丰富, |冷冻锁鲜, |国产风味, 川湘菜, |袋装, |国产, 它精选优质食材，通过科学的烹饪工艺</t>
+          <t>冷冻保存, |方便简单, |冷冻锁鲜, |200g分量, |半成品速食, |袋装便捷, |加热即食, |川湘风味, 原味, |袋装, |540天, 冷冻保存, |方便简单, |冷冻锁鲜, |200g分量, |半成品速食, |袋装便捷, |加热即食, |川湘风味</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>聪厨小炒黄牛肉225g</t>
+          <t>谷言捷百味牛肉麻婆豆腐200g*3袋</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25.8</v>
+        <v>49</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>聪厨京东自营旗舰店</t>
+          <t>谷言京东自营旗舰店</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>已售100万+30天种草飙升5倍</t>
+          <t>已售3万+1400+人种草</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>火锅食材, |免洗免调料, |肉质鲜美, |品质保证, |便捷预制, |多种搭配, |家庭聚餐, |进口优选, |水煮工艺, |新鲜冷冻, 川湘菜, |再烹饪, |袋装, 火锅食材, |免洗免调料, |肉质鲜美, |品质保证, |便捷预制, |多种搭配, |家庭聚餐, |进口优选, |水煮工艺, |新鲜冷冻</t>
+          <t>吃起来咸香可口都能多吃一碗饭, 鲜香嫩滑, |唇齿留香, |口感细嫩, |麻婆豆腐, |常温储存, |适合聚会, |加热即食, |加热便捷, |美味即食, |便利快餐, 吃起来咸香可口都能多吃一碗饭</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>敬知味湘味小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便速食 湘味小炒肉(10袋) 1700g 加热即食</t>
+          <t>鲜香嫩滑 口齿留香 加热即食</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>72.90000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>易优佰生鲜专营店</t>
+          <t>京喜自营官方店</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>已售200+</t>
+          <t>已售3000+99%好评</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6千+人浏览, |1千+人加购</t>
+          <t>鲜香嫩滑, |口齿留香, |严选食材, 牛肉类, |川湘菜, |国产, 鲜香嫩滑, |口齿留香, |严选食材</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>预制菜小炒牛肉(160g)*10袋</t>
+          <t>紫燕百味鸡牛肉麻婆豆腐预制菜调料川菜炒菜火锅食材调味料酱料100g</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>78</v>
+        <v>15.9</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
+          <t>紫燕百味鸡京东自营旗舰店</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>已售2000+91%好评</t>
+          <t>已售1万+</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>方便快捷, |加热即食, |商用外卖, |冷冻保存, |速食快餐, 365天, |混合类, |袋装, 方便快捷, |加热即食, |商用外卖, |冷冻保存, |速食快餐</t>
+          <t>麻辣鲜香, |多种原料, |地道风味</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>西牛优选大西北小炒黄牛肉150g*5袋新鲜嫩牛肉免切免洗半成品菜源头直发</t>
+          <t>胖東來甄选预制菜常温料理包家用方便速食菜加热即食盖浇饭快手菜9包【麻婆豆腐】 胖東來甄选线上超市官方店旗舰</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>89</v>
+        <v>60.5</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>西牛优选肉制品京东自营旗舰店</t>
+          <t>义乌市心含宇科技专营店</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>已售1万+</t>
+          <t>已售200+100%好评</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>绵润嫩滑, |精心腌制, |免洗免切免调理</t>
+          <t>5分钟一顿好饭, |即食盖浇饭菜, |胖东来预制菜</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>谷言预制菜风味小炒牛肉180g</t>
+          <t>捷百味预制菜牛肉麻婆豆腐200g*6</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>谷言官方旗舰店</t>
+          <t>捷百味惠康食品专卖店</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>已售1000+91%好评</t>
+          <t>已售2000+96%好评</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>加热即食, |冷冻保存, |方便简单, |轻松烹饪, |国产风味, |美味小炒, |180g分量, |冷冻方便, |口感佳, |营养丰富, 360天, |原味, |川湘菜, 加热即食, |冷冻保存, |方便简单, |轻松烹饪, |国产风味, |美味小炒, |180g分量, |冷冻方便, |口感佳, |营养丰富</t>
+          <t>速食便捷, |半成品菜, |常温保存, |加热即食, |下饭佳品, 原味, |≥6人份, |袋装, 速食便捷, |半成品菜, |常温保存, |加热即食, |下饭佳品</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>敬知味农家小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便菜肴 农家小炒肉(6袋) 1200g 加热即食</t>
+          <t>蜀香麻婆豆腐调料50g*5袋麻辣川菜调料炒菜烧菜特产方便调味品</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>88</v>
+        <v>14.1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>易优佰生鲜专营店</t>
+          <t>蜀香京东自营旗舰店</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>30人看过</t>
+          <t>已售9万+</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>600+人浏览, |100+人加购</t>
+          <t>红油麻辣, |地道川味, |近30日人气商品</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>敬知味农家小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便菜肴 农家小炒肉(10袋) 2000g 加热即食</t>
+          <t>谷言料理包麻婆豆腐200g20袋</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2040,615 +2040,1807 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>易优佰生鲜专营店</t>
+          <t>谷言官方旗舰店</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20人看过</t>
+          <t>已售100+96%好评</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>100+人加购, |700+人浏览</t>
+          <t>川湘菜, |麻辣味, |牛肉类</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>小炒牛肉170g*1</t>
+          <t>胖东来同款预制菜家用方便速食菜加热即食商宿舍外卖盖浇饭快手 9包【麻婆豆腐】</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>18.9</v>
+        <v>69</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>聪厨生鲜旗舰店</t>
+          <t>霖沁堂医药专营店</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>700+人看过700+人种草</t>
+          <t>69条评价100%好评</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>入选预制梅菜扣肉折扣榜前20名, 即刻享用, |味鲜肉嫩, |经典口味, |美味速享, |加热即食, |快捷便利, |新鲜随机, |家常美食, |营养丰富, |独特调味, 香辣味, |川湘菜, |再烹饪, 入选预制梅菜扣肉折扣榜前20名</t>
+          <t>家用快手, |加热即食, |商宿舍适用, |外卖便捷, |方便速食, 组合口味, |袋装, |国产, 家用快手, |加热即食, |商宿舍适用, |外卖便捷, |方便速食</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>牛肉小炒黄牛肉嫩滑牛肉片预制菜腌制入味半成品煎炒即食下酒牛肉片200g*5包 京东自营</t>
+          <t>常温料理包速食商用麻婆豆腐预制菜半成品快餐加热即食外卖 牛肉麻婆豆腐200g*40袋</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>64.67</v>
+        <v>401.2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>京喜自营官方店</t>
+          <t>安然蜜饯果干店</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>已售200+</t>
+          <t>22人看过</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>500+人浏览, |300+店铺粉丝浏览, |100+人加购</t>
+          <t>口味:香菇红烧肉味, |食用份量:≥6人份, |总净含量:≤250g</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>小炒牛肉片500g/1包清真嫩滑</t>
+          <t>胖l东来预制菜速食料理包快手菜</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>28.99</v>
+        <v>58.9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>京喜自营官方店</t>
+          <t>锦峰闫医疗保健专营店</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>68条评价100%好评</t>
+          <t>已售300+100%好评</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>嫩滑多汁, |鲜嫩不柴, |富含营养成分, 牛肉, |冷冻, 嫩滑多汁, |鲜嫩不柴, |富含营养成分</t>
+          <t>已售1000+, |800+人种草, |100%好评</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>小炒牛肉片新鲜牛肉微腌儿童夏季厨房必备生鲜半成品懒人菜食材 微腌牛肉片200g*10袋 京东自营</t>
+          <t>麻婆豆腐盖饭</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>129</v>
+        <v>26.6</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>京喜自营官方店</t>
+          <t>同康堂中医保健专营店</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>已售200+</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>300+人浏览, |200+店铺粉丝浏览, |超值性价比</t>
+          <t>国产, |魔芋饭, |365天</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>预制菜料理包6款牛肉类精选套餐</t>
+          <t>仲景 仲景预制菜专用酱料 黄焖鸡 辣椒炒肉麻辣鱼 藤椒肥牛麻婆豆腐麻婆豆腐150g*1袋（内含2小包）</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>45.9</v>
+        <v>12.8</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
+          <t>广味聚全食品店</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>已售2000+1000+人种草</t>
+          <t>9人看过</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>商用适宜, |加热即食, |冷冻锁鲜, |速食便捷, |牛肉精选, 混合类, |365天, |袋装, 商用适宜, |加热即食, |冷冻锁鲜, |速食便捷, |牛肉精选</t>
+          <t>超2万人店内购买, |店铺被2万人种草</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>谷言预制菜小炒牛肉200g</t>
+          <t>麻婆豆腐盖饭200g速食</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8.859999999999999</v>
+        <v>250.15</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>谷言官方旗舰店</t>
+          <t>仁堂中医馆养生专营店</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>已售3000+95%好评</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>方便简单, |方便快捷, |半成品速食, |加热即食, |无需加工, |随时享用, |袋装便捷, |新鲜口感, |冷冻保存, |200g分量, 原味, |川湘菜, |18 个月, 方便简单, |方便快捷, |半成品速食, |加热即食, |无需加工, |随时享用, |袋装便捷, |新鲜口感, |冷冻保存, |200g分量</t>
+          <t>国产, |魔芋饭, |365天</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>小炒牛肉片500g/1包嫩滑黄牛肉半成品煎炒下酒预制菜腌制入味牛肉片500g*5包 京东自营</t>
+          <t>捷百味常温料理包预制菜全品10袋装 外卖盖浇饭 商用家用 半成品菜牛肉麻婆豆腐200g*10袋</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>104.8</v>
+        <v>68.7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>京喜自营官方店</t>
+          <t>捷百味惠康食品专卖店</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8人看过</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>贮存条件:冷冻, |保质期:12个月, |类别:牛肉</t>
+          <t>原味</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>湘味小炒肉加热即食预制菜</t>
+          <t>肉末麻辣豆腐嫩豆腐麻婆豆腐菜肴熟食预制菜即食豆腐盖饭 超下饭肉末麻辣豆腐300g*5盒</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>72.90000000000001</v>
+        <v>156</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>易优佰生鲜专营店</t>
+          <t>秋意晚休闲食品店</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>已售5000+89%好评</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>方便快捷, |加热即食, |商用适宜, |半成品菜, |微辣口味, |袋装保存, |多款选择, 微辣味, |300天, |袋装, 方便快捷, |加热即食, |商用适宜, |半成品菜, |微辣口味, |袋装保存, |多款选择</t>
+          <t>下饭神器, |即食方便, |美味盖饭, |肉末丰富, |多盒装量</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>面浇头4款尝鲜快餐</t>
+          <t>好人家麻婆豆腐调料80g3香辣川味方便零添加家常菜调料包麻婆豆腐80g*3袋</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>31.36</v>
+        <v>27.35</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>已售2000+700+人种草</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>可商用, |方便速食, |冷冻保存, |外卖优质, |加热即食, |速食方便, |商用适宜, 365天, |混合类, |袋装, 可商用, |方便速食, |冷冻保存, |外卖优质, |加热即食, |速食方便, |商用适宜</t>
-        </is>
-      </c>
+          <t>食刻0823店</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>料理包预制菜加热即食10味任选</t>
+          <t>麻婆豆腐300g速食麻辣盖饭</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>38.8</v>
+        <v>82</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>厨哈哈食品官方旗舰店</t>
+          <t>聚阁舒方便食品专营店</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>已售2万+900+人种草</t>
+          <t>1人看过</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>任选菜单, |家用商用, |多样选择, |半成品菜, |加热即食, 徽菜, |365天, |禽肉类, 任选菜单, |家用商用, |多样选择, |半成品菜, |加热即食</t>
+          <t>美味速享, |常温保存, |素食佳选, |加热即食, |方便快捷</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>谷言预制菜特惠8种菜肴1525g</t>
+          <t>常温方便速食300g麻辣豆腐*3盒</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>42.9</v>
+        <v>36.67</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>谷言官方旗舰店</t>
+          <t>佳慕维修保养店</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>已售9万+1900+人种草</t>
+          <t>2人看过</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>冷冻生鲜, |组合套餐, |方便速食, |15种口味, |加热即食, 袋装, |混合类, |其他菜品, 冷冻生鲜, |组合套餐, |方便速食, |15种口味, |加热即食</t>
+          <t>365天, |川湘菜, |加热即食</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>粮农星厨团餐商用大包装冷冻料理包预制外卖方便菜成品速食小碗菜牛肉风味炒肉1000g/袋</t>
+          <t>预制菜山姆甄选常温料理包家用方便速食加热即食商宿舍外卖盖浇饭 9包【麻婆豆腐】</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>30.26</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
+          <t>迪迦堂医疗保健专营店</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>21人看过</t>
+          <t>12人看过100%好评</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>食材类别:混合类, |国产/进口:国产, |贮存条件:冷冻</t>
+          <t>国产, |300天</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>料理包预制菜加热即食3826g</t>
+          <t>饭乎砂锅煲仔饭猪肉拌饭腊味三拼烟笋熏肉梅菜扣肉预制菜自煮米饭麻婆豆腐拌饭2盒装</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.8</v>
+        <v>38</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>厨哈哈食品官方旗舰店</t>
+          <t>千恒休闲食品店</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>已售2万+400+人种草</t>
+          <t>13人看过</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>新鲜食材, |鲜香可口, |过瘾口感, |家用商用, |类型丰富, |口味多样, |商用推荐, |即热上桌, |黑椒风味, |方便快捷, 徽菜, |禽肉类, |365天, 新鲜食材, |鲜香可口, |过瘾口感, |家用商用, |类型丰富, |口味多样, |商用推荐, |即热上桌, |黑椒风味, |方便快捷</t>
+          <t>超2万人关注店铺, |超4千人店内购买</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>鸿亮炒菜牛肉丝肉丁拌肉家庭烧烤食材半成品烤肉中式菜肴250g*4包 2斤</t>
+          <t>新美香常温料理包麻婆豆腐外婆菜方便速食家常菜外卖盖浇饭快手菜夜宵 常温新品麻婆豆腐10袋</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>49.9</v>
+        <v>52.9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>鸿亮京东自营旗舰店</t>
+          <t>新美香食品官方旗舰店</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>已售10万+</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>中式炒菜烧烤, |解冻即可烹饪, |优质肉源</t>
+          <t>常温, |国产, |加热即食</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>料理包家常速食八款精选热销</t>
+          <t>快餐加热即食麻婆豆腐</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>52.14</v>
+        <v>50.67</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
+          <t>仁堂中医馆养生专营店</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>已售2000+800+人种草</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>预制菜料理包, |预制菜加热即食, |家常下饭预制菜, 365天, |袋装, |混合类, 预制菜料理包, |预制菜加热即食, |家常下饭预制菜</t>
+          <t>国产, |魔芋饭, |300天</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>谷言 捷百味常温特惠8种组合</t>
+          <t>甄选预制菜常温料理包家用方便速食菜加热即食盖浇饭快手菜9包[麻婆豆腐]</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>49.9</v>
+        <v>61.02</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>谷言京东自营旗舰店</t>
+          <t>客添元大药房旗舰店</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>已售7万+92%好评</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>常温储存无需冷, |特惠8种组合, |5分钟加热即食</t>
+          <t>1天</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>姚二娘小炒黄牛肉新鲜腌制牛肉免调理懒人方便菜牛肉片肴湘菜250g/袋小炒黄牛肉250g*1包</t>
+          <t>肉末麻辣豆腐嫩豆腐麻婆豆腐菜肴熟食预制菜即食豆腐盖饭 超下饭肉末麻辣豆腐300g*1盒</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33.81</v>
+        <v>40</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>聚品食品店</t>
+          <t>秋意晚休闲食品店</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14人看过</t>
+          <t>13人看过100%好评</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>店铺被5千人种草, |200+人浏览</t>
+          <t>普通盒装, |360天</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>预制菜土豆牛肉(220g)*10袋</t>
+          <t>味之物语预制菜调料厨房炒菜调味品组合调料麻婆豆腐炒菜调料组合 10袋组合</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>63</v>
+        <v>165.03</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>粮农星厨旗舰店</t>
+          <t>盖熙粮油调味店</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>已售2000+200+人种草</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>小碗菜品, |商用外卖, |速食快餐, |冷冻保存, |加热即食, |土豆牛肉, |盖浇饭料, 365天, |混合类, |袋装, 小碗菜品, |商用外卖, |速食快餐, |冷冻保存, |加热即食, |土豆牛肉, |盖浇饭料</t>
+          <t>袋装, |12个月, |国产</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9款湘菜预制菜套餐家庭加热即食半成品料理包嘴馋下酒菜 9款家庭畅销套餐[冷冻储存]</t>
+          <t>味之物语预制菜调料厨房炒菜调味品组合调料麻婆豆腐炒菜调料组合 15袋组合</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>89.15000000000001</v>
+        <v>240.2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>卡美拉特产休闲食品店</t>
+          <t>盖熙粮油调味店</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>100+人看过100%好评</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>畅销款, |高性价比, |价格优惠, |酸辣开胃, |冷冻储存, |家庭套餐, |加热即食, |多款选择, |国产菜系, 川湘菜, |365天, |国产, 畅销款, |高性价比, |价格优惠, |酸辣开胃, |冷冻储存, |家庭套餐, |加热即食, |多款选择, |国产菜系</t>
+          <t>袋装, |12个月, |国产</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>聪厨小炒黄牛肉225g生鲜牛肉火锅食材预制菜冷冻</t>
+          <t>胖東俫预制菜速食料理包</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>25.8</v>
+        <v>58.32</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>聪厨京东自营旗舰店</t>
+          <t>仁堂联盟药房专营店</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>已售100万+</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>免洗免调料, |200+店铺会员已买, |火锅食材</t>
+          <t>麻辣鲜香, |便捷料理, |省时省力, |加热即食, |方便快捷</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>谷言酱香牛肉205g*10袋</t>
+          <t>新美香常温料理包麻婆豆腐外婆菜方便速食家常菜外卖盖浇饭快手菜夜宵 常温新品麻婆豆腐5袋</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>89</v>
+        <v>28.9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>谷言官方旗舰店</t>
+          <t>新美香食品官方旗舰店</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>已售9万+500+人种草</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>国产风味, |冷冻锁鲜, |方便速食, |组合多样, |加热即食, 袋装, |川湘菜, |其他菜品, 国产风味, |冷冻锁鲜, |方便速食, |组合多样, |加热即食</t>
+          <t>加热即食, |国产</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>谷言预制菜料理包 冷冻生鲜 方便菜加热即食 农家小炒肉170g*3</t>
+          <t>东来甄选麻婆豆腐盖饭</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>69.62</v>
+        <v>33.1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>九月休闲食品店</t>
+          <t>同康堂中医保健专营店</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3人看过</t>
+          <t>100%好评</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>国产/进口:国产, |包装形式:袋装, |贮存条件:冷冻</t>
+          <t>国产, |魔芋饭, |365天</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20种加热即食预制菜</t>
+          <t>胖 东来甄选预制菜常温料理包家用方便速食菜加热即食盖浇饭快手 9包【麻婆豆腐】</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>109.9</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>易优佰生鲜专营店</t>
+          <t>杰辉堂健康滋补专营店</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>已售5000+89%好评</t>
+          <t>1人看过100%好评</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>适合批发, |方便易用, |即热即食, |高效烹饪, |营养丰富, |美味佳肴, |半成品菜, |便捷快餐, |快捷享用, |多款选择, 300天, |袋装, |国产, 适合批发, |方便易用, |即热即食, |高效烹饪, |营养丰富, |美味佳肴, |半成品菜, |便捷快餐, |快捷享用, |多款选择</t>
+          <t>300天</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>甄选预制菜家用速食即食9包</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>仙川医疗保健专营店</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2人看过100%好评</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>国产, |300天</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>清真10包麻婆豆腐</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>98</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>星奈堂大药房医疗保健专营店</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2人看过100%好评</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>365天</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>捷百味常温料理包3袋装预制菜外卖盖浇饭 商用家用 半成品菜加热即食 牛肉麻婆豆腐200g*3袋</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>捷百味惠康食品专卖店</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>53条评价100%好评</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>半成品菜, |便携袋装, |常温保存, |商用家用, |加热即食, |方便快捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>肉末麻辣豆腐嫩豆腐麻婆豆腐菜肴熟食预制菜即食豆腐盖饭 超下饭肉末麻辣豆腐300g*3盒</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>106</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>秋意晚休闲食品店</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1人看过100%好评</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>下饭神器, |即食便捷, |即食方便, |肉末丰富, |下饭佳品</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>饭乎新品煲仔饭超值上线鱼香肉丝咖喱鸡麻婆豆腐卤肉速食自热米饭麻婆豆腐*2盒</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>64</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>惠芭萝乌龙茶店</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1人看过</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1人份, |香菇红烧肉味, |盒装</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>捷百味品牌直营常温预制菜速食商用半成品菜盖浇饭料理包外卖 牛肉麻婆豆腐200g*6袋</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>水意食品店</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>进口, |魔芋饭, |360天</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>预制菜常温料理包家用</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>健善堂大药房专营店</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>53条评价100%好评</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>国产, |300天</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>肉末麻辣豆腐嫩豆腐麻婆豆腐菜肴熟食预制菜即食豆腐盖饭 超下饭肉末麻辣豆腐300g*2盒</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>77</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>秋意晚休闲食品店</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1人看过100%好评</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>普通盒装, |360天</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>方便速食麻辣豆腐300g</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>佳慕维修保养店</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6人看过</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>川湘菜, |365天, |国产</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>味之物语预制菜调料厨房炒菜调味品组合调料麻婆豆腐炒菜调料组合 5袋组合</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>盖熙粮油调味店</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>国产, |炒菜, |12个月</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>熬品常温料理包外卖快餐盖浇饭焗饭速食商用半成品菜肴预制菜素菜类-A麻婆豆腐200g*10包</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>120</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>海昇月方便食品店</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>常温, |袋装, |国产</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>常温料理包加热下饭菜组合</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>72</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>同康堂中医保健专营店</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>国产, |魔芋饭, |300天</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>捷百味常温预制菜速食商用半成品菜外送盖饭料理包加热即食快餐 牛肉麻婆豆腐200g*6袋【满2件享9.9折】</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>涵聘食品1店</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>魔芋饭, |360天</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>麻婆豆腐盖饭速食方便菜</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>健善堂大药房专营店</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>国产, |魔芋饭, |300天</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>外卖10包麻婆豆腐</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>86.58</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>仁堂中医馆养生专营店</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>100%好评</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>魔芋饭, |300天</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>捷百味牛肉麻婆豆腐盖饭</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>融禾侨百货店</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5人看过</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>牛肉麻婆, |加热即食, |预制菜包, 常温, |袋装, |国产, 牛肉麻婆, |加热即食, |预制菜包</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>西牛优选甘肃小炒黄牛肉150g*5袋+黑椒牛柳150g*5袋免调味半成品 源头直发</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西牛优选肉制品京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>已售1万+</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>精选腌制, |甄选食材, |1千+人浏览, |口感鲜香</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>谷言预制菜美味20种菜肴</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>105</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>谷言官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>已售9万+500+人好评</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>它精选优质食材，通过科学的烹饪工艺, 冷冻保存, |方便简单, |加热即食, |精选口味, |轻松烹饪, |快速便捷, |冷冻鲜美, |营养丰富, |冷冻锁鲜, |国产风味, 川湘菜, |袋装, |国产, 它精选优质食材，通过科学的烹饪工艺</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>聪厨小炒黄牛肉225g</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>聪厨京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>已售100万+30天种草飙升5倍</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>火锅食材, |免洗免调料, |肉质鲜美, |品质保证, |便捷预制, |多种搭配, |家庭聚餐, |进口优选, |水煮工艺, |新鲜冷冻, 川湘菜, |再烹饪, |袋装, 火锅食材, |免洗免调料, |肉质鲜美, |品质保证, |便捷预制, |多种搭配, |家庭聚餐, |进口优选, |水煮工艺, |新鲜冷冻</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>敬知味湘味小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便速食 湘味小炒肉(10袋) 1700g 加热即食</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易优佰生鲜专营店</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>已售200+</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>6千+人浏览, |1千+人加购</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>预制菜小炒牛肉(160g)*10袋</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>78</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>已售2000+91%好评</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>方便快捷, |加热即食, |商用外卖, |冷冻保存, |速食快餐, 365天, |混合类, |袋装, 方便快捷, |加热即食, |商用外卖, |冷冻保存, |速食快餐</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>西牛优选大西北小炒黄牛肉150g*5袋新鲜嫩牛肉免切免洗半成品菜源头直发</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>89</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西牛优选肉制品京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>已售1万+</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>绵润嫩滑, |精心腌制, |免洗免切免调理</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>谷言预制菜风味小炒牛肉180g</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>谷言官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>已售1000+91%好评</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>加热即食, |冷冻保存, |方便简单, |轻松烹饪, |国产风味, |美味小炒, |180g分量, |冷冻方便, |口感佳, |营养丰富, 360天, |原味, |川湘菜, 加热即食, |冷冻保存, |方便简单, |轻松烹饪, |国产风味, |美味小炒, |180g分量, |冷冻方便, |口感佳, |营养丰富</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>敬知味农家小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便菜肴 农家小炒肉(6袋) 1200g 加热即食</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>88</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>易优佰生鲜专营店</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>30人看过</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>600+人浏览, |100+人加购</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>敬知味农家小炒肉预制菜小碗菜快手菜加热即食料理包半成品方便菜肴 农家小炒肉(10袋) 2000g 加热即食</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>110</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易优佰生鲜专营店</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>20人看过</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>100+人加购, |700+人浏览</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>小炒牛肉170g*1</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>聪厨生鲜旗舰店</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>700+人看过700+人种草</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>入选预制梅菜扣肉折扣榜前20名, 即刻享用, |味鲜肉嫩, |经典口味, |美味速享, |加热即食, |快捷便利, |新鲜随机, |家常美食, |营养丰富, |独特调味, 香辣味, |川湘菜, |再烹饪, 入选预制梅菜扣肉折扣榜前20名</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>牛肉小炒黄牛肉嫩滑牛肉片预制菜腌制入味半成品煎炒即食下酒牛肉片200g*5包 京东自营</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>京喜自营官方店</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>已售200+</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>500+人浏览, |300+店铺粉丝浏览, |100+人加购</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>小炒牛肉片500g/1包清真嫩滑</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>京喜自营官方店</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>68条评价100%好评</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>嫩滑多汁, |鲜嫩不柴, |富含营养成分, 牛肉, |冷冻, 嫩滑多汁, |鲜嫩不柴, |富含营养成分</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>小炒牛肉片新鲜牛肉微腌儿童夏季厨房必备生鲜半成品懒人菜食材 微腌牛肉片200g*10袋 京东自营</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>129</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>京喜自营官方店</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>已售200+</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>300+人浏览, |200+店铺粉丝浏览, |超值性价比</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>预制菜料理包6款牛肉类精选套餐</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>已售2000+1000+人种草</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>商用适宜, |加热即食, |冷冻锁鲜, |速食便捷, |牛肉精选, 混合类, |365天, |袋装, 商用适宜, |加热即食, |冷冻锁鲜, |速食便捷, |牛肉精选</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>谷言预制菜小炒牛肉200g</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>谷言官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>已售3000+95%好评</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>方便简单, |方便快捷, |半成品速食, |加热即食, |无需加工, |随时享用, |袋装便捷, |新鲜口感, |冷冻保存, |200g分量, 原味, |川湘菜, |18 个月, 方便简单, |方便快捷, |半成品速食, |加热即食, |无需加工, |随时享用, |袋装便捷, |新鲜口感, |冷冻保存, |200g分量</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>小炒牛肉片500g/1包嫩滑黄牛肉半成品煎炒下酒预制菜腌制入味牛肉片500g*5包 京东自营</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>京喜自营官方店</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8人看过</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>贮存条件:冷冻, |保质期:12个月, |类别:牛肉</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>湘味小炒肉加热即食预制菜</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>易优佰生鲜专营店</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>已售5000+89%好评</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>方便快捷, |加热即食, |商用适宜, |半成品菜, |微辣口味, |袋装保存, |多款选择, 微辣味, |300天, |袋装, 方便快捷, |加热即食, |商用适宜, |半成品菜, |微辣口味, |袋装保存, |多款选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>面浇头4款尝鲜快餐</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>已售2000+700+人种草</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>可商用, |方便速食, |冷冻保存, |外卖优质, |加热即食, |速食方便, |商用适宜, 365天, |混合类, |袋装, 可商用, |方便速食, |冷冻保存, |外卖优质, |加热即食, |速食方便, |商用适宜</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>料理包预制菜加热即食10味任选</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>厨哈哈食品官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>已售2万+900+人种草</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>任选菜单, |家用商用, |多样选择, |半成品菜, |加热即食, 徽菜, |365天, |禽肉类, 任选菜单, |家用商用, |多样选择, |半成品菜, |加热即食</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>谷言预制菜特惠8种菜肴1525g</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>谷言官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>已售9万+1900+人种草</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>冷冻生鲜, |组合套餐, |方便速食, |15种口味, |加热即食, 袋装, |混合类, |其他菜品, 冷冻生鲜, |组合套餐, |方便速食, |15种口味, |加热即食</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>粮农星厨团餐商用大包装冷冻料理包预制外卖方便菜成品速食小碗菜牛肉风味炒肉1000g/袋</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>21人看过</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>食材类别:混合类, |国产/进口:国产, |贮存条件:冷冻</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>料理包预制菜加热即食3826g</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>厨哈哈食品官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>已售2万+400+人种草</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>新鲜食材, |鲜香可口, |过瘾口感, |家用商用, |类型丰富, |口味多样, |商用推荐, |即热上桌, |黑椒风味, |方便快捷, 徽菜, |禽肉类, |365天, 新鲜食材, |鲜香可口, |过瘾口感, |家用商用, |类型丰富, |口味多样, |商用推荐, |即热上桌, |黑椒风味, |方便快捷</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>鸿亮炒菜牛肉丝肉丁拌肉家庭烧烤食材半成品烤肉中式菜肴250g*4包 2斤</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鸿亮京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>已售10万+</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>中式炒菜烧烤, |解冻即可烹饪, |优质肉源</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>料理包家常速食八款精选热销</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>52.14</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>已售2000+800+人种草</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>预制菜料理包, |预制菜加热即食, |家常下饭预制菜, 365天, |袋装, |混合类, 预制菜料理包, |预制菜加热即食, |家常下饭预制菜</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>谷言 捷百味常温特惠8种组合</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>谷言京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>已售7万+92%好评</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>常温储存无需冷, |特惠8种组合, |5分钟加热即食</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>姚二娘小炒黄牛肉新鲜腌制牛肉免调理懒人方便菜牛肉片肴湘菜250g/袋小炒黄牛肉250g*1包</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>聚品食品店</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>14人看过</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>店铺被5千人种草, |200+人浏览</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>预制菜土豆牛肉(220g)*10袋</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>63</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>粮农星厨旗舰店</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>已售2000+200+人种草</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>小碗菜品, |商用外卖, |速食快餐, |冷冻保存, |加热即食, |土豆牛肉, |盖浇饭料, 365天, |混合类, |袋装, 小碗菜品, |商用外卖, |速食快餐, |冷冻保存, |加热即食, |土豆牛肉, |盖浇饭料</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>9款湘菜预制菜套餐家庭加热即食半成品料理包嘴馋下酒菜 9款家庭畅销套餐[冷冻储存]</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>卡美拉特产休闲食品店</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>100+人看过100%好评</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>畅销款, |高性价比, |价格优惠, |酸辣开胃, |冷冻储存, |家庭套餐, |加热即食, |多款选择, |国产菜系, 川湘菜, |365天, |国产, 畅销款, |高性价比, |价格优惠, |酸辣开胃, |冷冻储存, |家庭套餐, |加热即食, |多款选择, |国产菜系</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>聪厨小炒黄牛肉225g生鲜牛肉火锅食材预制菜冷冻</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>聪厨京东自营旗舰店</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>已售100万+</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>免洗免调料, |200+店铺会员已买, |火锅食材</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>谷言酱香牛肉205g*10袋</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>89</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>谷言官方旗舰店</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>已售9万+500+人种草</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>国产风味, |冷冻锁鲜, |方便速食, |组合多样, |加热即食, 袋装, |川湘菜, |其他菜品, 国产风味, |冷冻锁鲜, |方便速食, |组合多样, |加热即食</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>谷言预制菜料理包 冷冻生鲜 方便菜加热即食 农家小炒肉170g*3</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>69.62</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>九月休闲食品店</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3人看过</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>国产/进口:国产, |包装形式:袋装, |贮存条件:冷冻</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20种加热即食预制菜</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易优佰生鲜专营店</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>已售5000+89%好评</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>适合批发, |方便易用, |即热即食, |高效烹饪, |营养丰富, |美味佳肴, |半成品菜, |便捷快餐, |快捷享用, |多款选择, 300天, |袋装, |国产, 适合批发, |方便易用, |即热即食, |高效烹饪, |营养丰富, |美味佳肴, |半成品菜, |便捷快餐, |快捷享用, |多款选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>谷言速食汤混组9袋组合2250g</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B137" t="n">
         <v>47</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>谷言官方旗舰店</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>已售9万+91%好评</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>川湘菜, |袋装, |540天</t>
         </is>
@@ -2692,7 +3884,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -2702,17 +3894,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>|冷冻保存</t>
+          <t>|国产</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -2722,77 +3914,77 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>|国产</t>
+          <t>|冷冻保存</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>|营养丰富</t>
+          <t>|川湘菜</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>|川湘菜</t>
+          <t>|营养丰富</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>|多样选择</t>
+          <t>|365天</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>多种口味</t>
+          <t>|多样选择</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>|冷冻生鲜</t>
+          <t>|方便速食</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>|方便速食</t>
+          <t>|常温保存</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2802,67 +3994,67 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>|混合类</t>
+          <t>多种口味</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>混合类</t>
+          <t>|冷冻生鲜</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>|多款选择</t>
+          <t>|混合类</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>|常温保存</t>
+          <t>混合类</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>|速冻锁鲜</t>
+          <t>|多款选择</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>|365天</t>
+          <t>|速冻锁鲜</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -2872,7 +4064,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -2882,73 +4074,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>|轻松烹饪</t>
+          <t>|半成品菜</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>|18个月</t>
+          <t>川湘菜</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>|家用商用</t>
+          <t>国产</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>|营养均衡</t>
+          <t>|轻松烹饪</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>|半成品菜</t>
+          <t>|18个月</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>|速食快餐</t>
+          <t>|家用商用</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>|即食美味</t>
+          <t>|营养均衡</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2958,31 +4150,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>方便简单</t>
+          <t>|速食快餐</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>|即热即食</t>
+          <t>365天</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>|多种口味</t>
+          <t>|即食美味</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +4215,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -3033,7 +4225,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -3059,261 +4251,261 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>包</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>菜套餐</t>
+          <t>加热即食</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>料理包预制菜加热即食</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>加热即食</t>
+          <t>菜套餐</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>盒</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>谷言预制菜美味</t>
+          <t>麻婆豆腐</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>京东自营</t>
+          <t>料理包预制菜加热即食</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>种肉食套餐</t>
+          <t>麻婆豆腐盖饭</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>谷言捷百味</t>
+          <t>谷言预制菜美味</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>小炒牛肉片</t>
+          <t>京东自营</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>种套餐</t>
+          <t>鲜香嫩滑</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>种加热即食预制菜</t>
+          <t>口齿留香</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>预制菜料理包</t>
+          <t>肉末麻辣豆腐嫩豆腐麻婆豆腐菜肴熟食预制菜即食豆腐盖饭</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>斤</t>
+          <t>超下饭肉末麻辣豆腐</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>种组合</t>
+          <t>种肉食套餐</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>农家小炒肉</t>
+          <t>谷言捷百味</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>谷言预制菜实惠</t>
+          <t>胖</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>菜组合装</t>
+          <t>牛肉麻婆豆腐</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>酸菜鱼</t>
+          <t>袋组合</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>款商用推荐套装</t>
+          <t>东来甄选麻婆豆腐盖饭</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>谷言小碗菜</t>
+          <t>小炒牛肉片</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>料理包外卖快餐速食商用家用</t>
+          <t>种套餐</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>谷言意大利面酱</t>
+          <t>种加热即食预制菜</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>意式番茄黑椒牛肉酱</t>
+          <t>预制菜料理包</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>猪肉酱预制菜面卤</t>
+          <t>斤</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>可蒸烩煮炒</t>
+          <t>种组合</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
